--- a/examples-browser/mongodb/question.xlsx
+++ b/examples-browser/mongodb/question.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82108\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\distr\OneDrive\문서\GitHub\level-test-with-ai\examples-browser\mongodb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{123B2B5D-C947-4748-BD0F-1166E2EAECAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="195" windowWidth="20550" windowHeight="19380" xr2:uid="{CB89B37C-BF2A-4442-B182-C32B525ABF7A}"/>
+    <workbookView xWindow="15840" yWindow="192" windowWidth="20556" windowHeight="19380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,23 +499,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07AD2BD-34E4-4007-984C-FC84C1E501DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="11.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.8984375" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="11" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -626,4 +626,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>